--- a/biology/Botanique/Germe/Germe.xlsx
+++ b/biology/Botanique/Germe/Germe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, un germe est un embryon de plante contenu dans une graine. Le terme désigne également une excroissance qui se développe depuis un tubercule. Germe est un synonyme de plicitatus. La germination est le processus par lequel une graine germe.
 			Germination d'un haricot.
